--- a/Excel Dataframes, EDA and Predictive Modelling/SerieA_rank.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/SerieA_rank.xlsx
@@ -538,68 +538,68 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>5.724</v>
+        <v>7.654</v>
       </c>
       <c r="E2" t="n">
-        <v>3.717</v>
+        <v>2.567</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
         <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="L2" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="P2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="R2" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="S2" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>8.728999999999999</v>
+        <v>5.724</v>
       </c>
       <c r="E3" t="n">
-        <v>3.028</v>
+        <v>3.717</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>9</v>
@@ -630,31 +630,31 @@
         <v>2.25</v>
       </c>
       <c r="K3" t="n">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="L3" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0.25</v>
       </c>
       <c r="Q3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S3" t="n">
         <v>0.25</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -843,129 +843,129 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>3.242</v>
+        <v>6.285</v>
       </c>
       <c r="E7" t="n">
-        <v>4.724</v>
+        <v>11.074</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="K7" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="L7" t="n">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="P7" t="n">
-        <v>0.67</v>
+        <v>0.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="R7" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="S7" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.738</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F8" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
-        <v>6.285</v>
-      </c>
-      <c r="E8" t="n">
-        <v>11.074</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K8" t="n">
+        <v>67</v>
+      </c>
+      <c r="L8" t="n">
+        <v>77</v>
+      </c>
+      <c r="M8" t="n">
         <v>8</v>
       </c>
-      <c r="G8" t="n">
-        <v>11</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>58</v>
-      </c>
-      <c r="L8" t="n">
-        <v>82</v>
-      </c>
-      <c r="M8" t="n">
-        <v>6</v>
-      </c>
       <c r="N8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
@@ -975,19 +975,19 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>11.58</v>
+        <v>8.652000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>8.164999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="I9" t="n">
         <v>7</v>
@@ -996,16 +996,16 @@
         <v>1.17</v>
       </c>
       <c r="K9" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L9" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
         <v>0.67</v>
@@ -1014,19 +1014,19 @@
         <v>0.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0.33</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
@@ -1036,16 +1036,16 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>6.738</v>
+        <v>11.58</v>
       </c>
       <c r="E10" t="n">
-        <v>9.75</v>
+        <v>8.164999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
         <v>-1</v>
@@ -1057,172 +1057,172 @@
         <v>1.17</v>
       </c>
       <c r="K10" t="n">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="L10" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="M10" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="P10" t="n">
         <v>0.33</v>
       </c>
       <c r="Q10" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R10" t="n">
         <v>0.33</v>
       </c>
-      <c r="R10" t="n">
-        <v>0.5</v>
-      </c>
       <c r="S10" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>6.577999999999999</v>
+        <v>4.841</v>
       </c>
       <c r="E11" t="n">
-        <v>2.085</v>
+        <v>5.599</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="L11" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="P11" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5.344</v>
+        <v>6.577999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>14.15</v>
+        <v>2.085</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="L12" t="n">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N12" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="P12" t="n">
         <v>0.67</v>
       </c>
-      <c r="P12" t="n">
-        <v>0.33</v>
-      </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>6.391</v>
+        <v>5.344</v>
       </c>
       <c r="E13" t="n">
-        <v>9.464</v>
+        <v>14.15</v>
       </c>
       <c r="F13" t="n">
         <v>6</v>
@@ -1234,37 +1234,37 @@
         <v>-6</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="K13" t="n">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="L13" t="n">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="14">
@@ -1392,367 +1392,367 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6.597</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.859</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
         <v>6</v>
       </c>
-      <c r="D16" t="n">
-        <v>6.817</v>
-      </c>
-      <c r="E16" t="n">
-        <v>14.105</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>58</v>
+      </c>
+      <c r="L16" t="n">
+        <v>45</v>
+      </c>
+      <c r="M16" t="n">
+        <v>9</v>
+      </c>
+      <c r="N16" t="n">
         <v>5</v>
       </c>
-      <c r="G16" t="n">
-        <v>16</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-11</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="K16" t="n">
-        <v>84</v>
-      </c>
-      <c r="L16" t="n">
-        <v>70</v>
-      </c>
-      <c r="M16" t="n">
-        <v>8</v>
-      </c>
-      <c r="N16" t="n">
-        <v>22</v>
-      </c>
       <c r="O16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.817</v>
+      </c>
+      <c r="E17" t="n">
+        <v>14.105</v>
+      </c>
+      <c r="F17" t="n">
         <v>5</v>
       </c>
-      <c r="D17" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7.531000000000001</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="K17" t="n">
+        <v>84</v>
+      </c>
+      <c r="L17" t="n">
         <v>70</v>
       </c>
-      <c r="L17" t="n">
-        <v>57</v>
-      </c>
       <c r="M17" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6.648999999999999</v>
+        <v>2.982</v>
       </c>
       <c r="E18" t="n">
-        <v>10.607</v>
+        <v>8.734999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
         <v>12</v>
       </c>
       <c r="H18" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="K18" t="n">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="L18" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="M18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
       <c r="P18" t="n">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="S18" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>2.982</v>
+        <v>6.967</v>
       </c>
       <c r="E19" t="n">
-        <v>8.734999999999999</v>
+        <v>13.423</v>
       </c>
       <c r="F19" t="n">
         <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H19" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="K19" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="L19" t="n">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>0.75</v>
+        <v>0.14</v>
       </c>
       <c r="P19" t="n">
-        <v>0.25</v>
+        <v>0.86</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="S19" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>6.967</v>
+        <v>2.797</v>
       </c>
       <c r="E20" t="n">
-        <v>13.423</v>
+        <v>6.464</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H20" t="n">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="K20" t="n">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="L20" t="n">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="M20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>0.14</v>
+        <v>0.75</v>
       </c>
       <c r="P20" t="n">
-        <v>0.86</v>
+        <v>0.25</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="S20" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.358</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.773</v>
+      </c>
+      <c r="F21" t="n">
         <v>4</v>
       </c>
-      <c r="D21" t="n">
-        <v>2.797</v>
-      </c>
-      <c r="E21" t="n">
-        <v>6.464</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
-      </c>
       <c r="G21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H21" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="K21" t="n">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="L21" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="P21" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="S21" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="22">
@@ -1935,7 +1935,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
@@ -1945,235 +1945,235 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>17.479</v>
+        <v>12.046</v>
       </c>
       <c r="E2" t="n">
-        <v>8.852</v>
+        <v>7.028</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="L2" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="M2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="P2" t="n">
         <v>0.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="R2" t="n">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="S2" t="n">
-        <v>0.38</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>12.046</v>
+        <v>32.632</v>
       </c>
       <c r="E3" t="n">
-        <v>7.028</v>
+        <v>8.246</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="K3" t="n">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="L3" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="M3" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
       <c r="P3" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.88</v>
+        <v>0.55</v>
       </c>
       <c r="R3" t="n">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="S3" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>17.313</v>
+        <v>15.16</v>
       </c>
       <c r="E4" t="n">
-        <v>9.349</v>
+        <v>9.111000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J4" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="K4" t="n">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="L4" t="n">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="M4" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N4" t="n">
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="P4" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="R4" t="n">
-        <v>0.44</v>
+        <v>0.75</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>29.728</v>
+        <v>17.313</v>
       </c>
       <c r="E5" t="n">
-        <v>6.577999999999999</v>
+        <v>9.349</v>
       </c>
       <c r="F5" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="K5" t="n">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="L5" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -2423,111 +2423,111 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>11.914</v>
+        <v>8.427</v>
       </c>
       <c r="E10" t="n">
-        <v>11.318</v>
+        <v>3.596</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="K10" t="n">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="L10" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="M10" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="P10" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="R10" t="n">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
       <c r="S10" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>8.427</v>
+        <v>12.93</v>
       </c>
       <c r="E11" t="n">
-        <v>3.596</v>
+        <v>13.215</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
         <v>1.6</v>
       </c>
       <c r="K11" t="n">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="L11" t="n">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P11" t="n">
         <v>0.2</v>
@@ -2536,10 +2536,10 @@
         <v>0.4</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
@@ -2667,62 +2667,62 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>9.902000000000001</v>
+        <v>16.733</v>
       </c>
       <c r="E14" t="n">
-        <v>7.191</v>
+        <v>5.925</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="K14" t="n">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="L14" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="M14" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
       <c r="P14" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="R14" t="n">
-        <v>0.67</v>
+        <v>0.38</v>
       </c>
       <c r="S14" t="n">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -2789,7 +2789,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
@@ -2799,52 +2799,52 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>16.733</v>
+        <v>9.167</v>
       </c>
       <c r="E16" t="n">
-        <v>5.925</v>
+        <v>6.42</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>11</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K16" t="n">
+        <v>82</v>
+      </c>
+      <c r="L16" t="n">
+        <v>76</v>
+      </c>
+      <c r="M16" t="n">
+        <v>12</v>
+      </c>
+      <c r="N16" t="n">
         <v>8</v>
       </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>161</v>
-      </c>
-      <c r="L16" t="n">
-        <v>73</v>
-      </c>
-      <c r="M16" t="n">
-        <v>20</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5</v>
-      </c>
       <c r="O16" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="R16" t="n">
         <v>0.62</v>
       </c>
-      <c r="P16" t="n">
+      <c r="S16" t="n">
         <v>0.25</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="17">
@@ -2857,13 +2857,13 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>11.001</v>
+        <v>11.563</v>
       </c>
       <c r="E17" t="n">
-        <v>6.577999999999999</v>
+        <v>7.276</v>
       </c>
       <c r="F17" t="n">
         <v>11</v>
@@ -2875,16 +2875,16 @@
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="K17" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="L17" t="n">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="M17" t="n">
         <v>9</v>
@@ -2893,19 +2893,19 @@
         <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="P17" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="R17" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="S17" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
@@ -3040,55 +3040,55 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>9.128</v>
+        <v>11.111</v>
       </c>
       <c r="E20" t="n">
-        <v>4.031</v>
+        <v>4.871</v>
       </c>
       <c r="F20" t="n">
+        <v>9</v>
+      </c>
+      <c r="G20" t="n">
         <v>8</v>
       </c>
-      <c r="G20" t="n">
-        <v>7</v>
-      </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K20" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="L20" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="M20" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="P20" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="R20" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="S20" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="21">
@@ -3101,34 +3101,34 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>9.446999999999999</v>
+        <v>8.733000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>17.043</v>
+        <v>16.679</v>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H21" t="n">
         <v>-8</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="K21" t="n">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="L21" t="n">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="M21" t="n">
         <v>10</v>
@@ -3137,19 +3137,19 @@
         <v>24</v>
       </c>
       <c r="O21" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="P21" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R21" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="S21" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="22">
@@ -3454,62 +3454,62 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>17.722</v>
+        <v>4.154999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>3.517</v>
+        <v>2.882</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>35</v>
+      </c>
+      <c r="L2" t="n">
+        <v>26</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N2" t="n">
         <v>4</v>
       </c>
-      <c r="H2" t="n">
-        <v>11</v>
-      </c>
-      <c r="I2" t="n">
-        <v>24</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>146</v>
-      </c>
-      <c r="L2" t="n">
-        <v>62</v>
-      </c>
-      <c r="M2" t="n">
-        <v>19</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2</v>
-      </c>
       <c r="O2" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -3644,49 +3644,49 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4.697</v>
+        <v>2.621</v>
       </c>
       <c r="E5" t="n">
-        <v>1.324</v>
+        <v>0.555</v>
       </c>
       <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>16</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11</v>
+      </c>
+      <c r="M5" t="n">
         <v>4</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>31</v>
-      </c>
-      <c r="L5" t="n">
-        <v>22</v>
-      </c>
-      <c r="M5" t="n">
-        <v>7</v>
-      </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
@@ -3820,361 +3820,361 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>7.875</v>
+        <v>17.722</v>
       </c>
       <c r="E8" t="n">
-        <v>3.04</v>
+        <v>3.517</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="L8" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="M8" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="R8" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>4.154999999999999</v>
+        <v>13.491</v>
       </c>
       <c r="E9" t="n">
-        <v>2.882</v>
+        <v>5.249</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="K9" t="n">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="L9" t="n">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="M9" t="n">
+        <v>17</v>
+      </c>
+      <c r="N9" t="n">
         <v>7</v>
       </c>
-      <c r="N9" t="n">
-        <v>4</v>
-      </c>
       <c r="O9" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.237</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.977</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
-      <c r="D10" t="n">
-        <v>13.491</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.249</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>16</v>
       </c>
-      <c r="G10" t="n">
-        <v>4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>12</v>
-      </c>
-      <c r="I10" t="n">
-        <v>19</v>
-      </c>
       <c r="J10" t="n">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="K10" t="n">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L10" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M10" t="n">
         <v>17</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="R10" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="S10" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.844</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.175</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
-      <c r="D11" t="n">
-        <v>11.237</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4.977</v>
-      </c>
-      <c r="F11" t="n">
-        <v>12</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
       <c r="I11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="L11" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="M11" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="R11" t="n">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="S11" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.414</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.335</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
         <v>5</v>
       </c>
-      <c r="D12" t="n">
-        <v>10.844</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4.175</v>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K12" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="L12" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="M12" t="n">
         <v>14</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>10.937</v>
+        <v>11.281</v>
       </c>
       <c r="E13" t="n">
-        <v>8.244</v>
+        <v>6.423999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="K13" t="n">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="L13" t="n">
         <v>61</v>
       </c>
       <c r="M13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.57</v>
+        <v>0.4</v>
       </c>
       <c r="R13" t="n">
         <v>1</v>
@@ -4186,56 +4186,56 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>11.281</v>
+        <v>9.635</v>
       </c>
       <c r="E14" t="n">
-        <v>6.423999999999999</v>
+        <v>7.888</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="K14" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="L14" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="R14" t="n">
         <v>1</v>
@@ -4247,120 +4247,120 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>1.317</v>
+        <v>6.265</v>
       </c>
       <c r="E15" t="n">
-        <v>1.648</v>
+        <v>6.433</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K15" t="n">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="L15" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.317</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.648</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
         <v>4</v>
       </c>
-      <c r="D16" t="n">
-        <v>6.613</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.643</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8</v>
-      </c>
       <c r="J16" t="n">
         <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="L16" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M16" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
@@ -4379,16 +4379,16 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>5.76</v>
+        <v>6.613</v>
       </c>
       <c r="E17" t="n">
-        <v>6.073</v>
+        <v>1.643</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
@@ -4400,31 +4400,31 @@
         <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L17" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" t="n">
         <v>0.75</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.25</v>
-      </c>
       <c r="R17" t="n">
         <v>0.5</v>
       </c>
       <c r="S17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4552,7 +4552,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
@@ -4562,19 +4562,19 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>8.353999999999999</v>
+        <v>5.563</v>
       </c>
       <c r="E20" t="n">
-        <v>7.936999999999999</v>
+        <v>3.32</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>5</v>
@@ -4583,172 +4583,172 @@
         <v>1.25</v>
       </c>
       <c r="K20" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L20" t="n">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="M20" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8.131</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.594</v>
+      </c>
+      <c r="F21" t="n">
         <v>5</v>
       </c>
-      <c r="D21" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4.044</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
-      </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="K21" t="n">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="L21" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M21" t="n">
+        <v>12</v>
+      </c>
+      <c r="N21" t="n">
         <v>8</v>
       </c>
-      <c r="N21" t="n">
-        <v>3</v>
-      </c>
       <c r="O21" t="n">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="P21" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="S21" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>8.131</v>
+        <v>7.606</v>
       </c>
       <c r="E22" t="n">
-        <v>6.594</v>
+        <v>5.242</v>
       </c>
       <c r="F22" t="n">
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.17</v>
+        <v>0.8</v>
       </c>
       <c r="K22" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="L22" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="M22" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N22" t="n">
         <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="P22" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="R22" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S22" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>6.09</v>
+        <v>6.718999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>4.803</v>
+        <v>6.667</v>
       </c>
       <c r="F23" t="n">
         <v>5</v>
@@ -4760,37 +4760,37 @@
         <v>-1</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="K23" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="L23" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="M23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N23" t="n">
         <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4973,123 +4973,123 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.914</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.923</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.793</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K3" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="L3" t="n">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="P3" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.67</v>
+        <v>0.2</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="S3" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.749000000000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.718</v>
+      </c>
+      <c r="F4" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6.689</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>56</v>
+      </c>
+      <c r="L4" t="n">
+        <v>77</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8</v>
+      </c>
+      <c r="N4" t="n">
         <v>7</v>
       </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>46</v>
-      </c>
-      <c r="L4" t="n">
-        <v>57</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9</v>
-      </c>
       <c r="O4" t="n">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="S4" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -5339,169 +5339,169 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>4.768</v>
+        <v>1.848</v>
       </c>
       <c r="E9" t="n">
-        <v>12.291</v>
+        <v>6.640000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="K9" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="L9" t="n">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="M9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>1.196</v>
+        <v>4.768</v>
       </c>
       <c r="E10" t="n">
-        <v>3.332</v>
+        <v>12.291</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K10" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="L10" t="n">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>3.173</v>
+        <v>6.638</v>
       </c>
       <c r="E11" t="n">
-        <v>10.193</v>
+        <v>11.196</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>0.5</v>
       </c>
       <c r="K11" t="n">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="L11" t="n">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O11" t="n">
         <v>0.5</v>
@@ -5510,13 +5510,13 @@
         <v>0.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="12">
@@ -5583,62 +5583,62 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>6.638</v>
+        <v>2.864</v>
       </c>
       <c r="E13" t="n">
-        <v>11.196</v>
+        <v>6.236</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="K13" t="n">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="L13" t="n">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="M13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="S13" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="14">
@@ -5827,29 +5827,29 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1.73</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>7.433</v>
+        <v>0.922</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -5858,59 +5858,59 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8179999999999999</v>
+        <v>1.73</v>
       </c>
       <c r="E18" t="n">
-        <v>0.922</v>
+        <v>7.433</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -5919,31 +5919,31 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>27</v>
+      </c>
+      <c r="L18" t="n">
+        <v>47</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
         <v>9</v>
       </c>
-      <c r="L18" t="n">
-        <v>14</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1</v>
-      </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -6492,68 +6492,68 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>15.123</v>
+        <v>15.454</v>
       </c>
       <c r="E3" t="n">
-        <v>4.973</v>
+        <v>11.119</v>
       </c>
       <c r="F3" t="n">
+        <v>18</v>
+      </c>
+      <c r="G3" t="n">
         <v>12</v>
       </c>
-      <c r="G3" t="n">
-        <v>7</v>
-      </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="L3" t="n">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="M3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="R3" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="S3" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
@@ -6563,37 +6563,37 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>14.579</v>
+        <v>17.159</v>
       </c>
       <c r="E4" t="n">
-        <v>9.52</v>
+        <v>7.234</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>108</v>
+      </c>
+      <c r="L4" t="n">
+        <v>111</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22</v>
+      </c>
+      <c r="N4" t="n">
         <v>5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K4" t="n">
-        <v>105</v>
-      </c>
-      <c r="L4" t="n">
-        <v>100</v>
-      </c>
-      <c r="M4" t="n">
-        <v>20</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>0.75</v>
@@ -6605,132 +6605,132 @@
         <v>0.25</v>
       </c>
       <c r="R4" t="n">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="S4" t="n">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.745</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11.144</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12.482</v>
-      </c>
-      <c r="F5" t="n">
-        <v>18</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17</v>
-      </c>
       <c r="J5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="K5" t="n">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="L5" t="n">
         <v>107</v>
       </c>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>5.745</v>
+        <v>11.658</v>
       </c>
       <c r="E6" t="n">
-        <v>11.144</v>
+        <v>11.049</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="K6" t="n">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="L6" t="n">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>0.67</v>
+        <v>0.44</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="Q6" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="R6" t="n">
         <v>0.33</v>
       </c>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -6797,7 +6797,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
@@ -6807,19 +6807,19 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>8.055999999999999</v>
+        <v>12.127</v>
       </c>
       <c r="E8" t="n">
-        <v>8.164999999999999</v>
+        <v>11.147</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>12</v>
@@ -6828,275 +6828,275 @@
         <v>1.33</v>
       </c>
       <c r="K8" t="n">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="L8" t="n">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="S8" t="n">
         <v>0.22</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.055999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8.164999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
-        <v>9.373000000000001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8.623000000000001</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8</v>
-      </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="K9" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L9" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O9" t="n">
-        <v>0.71</v>
+        <v>0.22</v>
       </c>
       <c r="P9" t="n">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>0.14</v>
+        <v>0.44</v>
       </c>
       <c r="S9" t="n">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.373000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.623000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>9</v>
       </c>
-      <c r="D10" t="n">
-        <v>10.529</v>
-      </c>
-      <c r="E10" t="n">
-        <v>12.101</v>
-      </c>
-      <c r="F10" t="n">
-        <v>14</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K10" t="n">
+        <v>79</v>
+      </c>
+      <c r="L10" t="n">
+        <v>87</v>
+      </c>
+      <c r="M10" t="n">
         <v>15</v>
       </c>
-      <c r="H10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="K10" t="n">
-        <v>97</v>
-      </c>
-      <c r="L10" t="n">
-        <v>113</v>
-      </c>
-      <c r="M10" t="n">
-        <v>14</v>
-      </c>
       <c r="N10" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>0.78</v>
+        <v>0.71</v>
       </c>
       <c r="P10" t="n">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
       <c r="R10" t="n">
-        <v>0.67</v>
+        <v>0.14</v>
       </c>
       <c r="S10" t="n">
-        <v>0.33</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>11.847</v>
+        <v>10.529</v>
       </c>
       <c r="E11" t="n">
-        <v>14.272</v>
+        <v>12.101</v>
       </c>
       <c r="F11" t="n">
+        <v>14</v>
+      </c>
+      <c r="G11" t="n">
         <v>15</v>
       </c>
-      <c r="G11" t="n">
-        <v>13</v>
-      </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="K11" t="n">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="L11" t="n">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
         <v>14</v>
       </c>
       <c r="N11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>11.001</v>
+        <v>12.545</v>
       </c>
       <c r="E12" t="n">
-        <v>10.866</v>
+        <v>14.834</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="K12" t="n">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="L12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="P12" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="S12" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="13">
@@ -7163,407 +7163,407 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11.773</v>
+      </c>
+      <c r="E14" t="n">
+        <v>17.879</v>
+      </c>
+      <c r="F14" t="n">
         <v>11</v>
       </c>
-      <c r="D14" t="n">
-        <v>6.854</v>
-      </c>
-      <c r="E14" t="n">
-        <v>20.358</v>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
       <c r="G14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="I14" t="n">
         <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="K14" t="n">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="L14" t="n">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O14" t="n">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="P14" t="n">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="R14" t="n">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="S14" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="n">
+        <v>11</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6.854</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20.358</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>17</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K15" t="n">
+        <v>79</v>
+      </c>
+      <c r="L15" t="n">
+        <v>185</v>
+      </c>
+      <c r="M15" t="n">
         <v>10</v>
-      </c>
-      <c r="D15" t="n">
-        <v>10.834</v>
-      </c>
-      <c r="E15" t="n">
-        <v>17.642</v>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-      <c r="G15" t="n">
-        <v>15</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K15" t="n">
-        <v>108</v>
-      </c>
-      <c r="L15" t="n">
-        <v>151</v>
-      </c>
-      <c r="M15" t="n">
-        <v>12</v>
       </c>
       <c r="N15" t="n">
         <v>23</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>5.24</v>
+        <v>2.89</v>
       </c>
       <c r="E16" t="n">
-        <v>5.288</v>
+        <v>3.405</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>0.67</v>
       </c>
       <c r="K16" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="L16" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="P16" t="n">
         <v>0.33</v>
       </c>
-      <c r="P16" t="n">
-        <v>0.5</v>
-      </c>
       <c r="Q16" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="R16" t="n">
         <v>0.33</v>
       </c>
       <c r="S16" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>2.89</v>
+        <v>8.759</v>
       </c>
       <c r="E17" t="n">
-        <v>3.405</v>
+        <v>10.204</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H17" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
         <v>0.67</v>
       </c>
       <c r="K17" t="n">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="L17" t="n">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="P17" t="n">
-        <v>0.33</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="R17" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="S17" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>8.759</v>
+        <v>5.24</v>
       </c>
       <c r="E18" t="n">
-        <v>10.204</v>
+        <v>5.288</v>
       </c>
       <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I18" t="n">
         <v>4</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6</v>
       </c>
       <c r="J18" t="n">
         <v>0.67</v>
       </c>
       <c r="K18" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="L18" t="n">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="M18" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
         <v>0.33</v>
       </c>
       <c r="P18" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.44</v>
+        <v>0.17</v>
       </c>
       <c r="R18" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="S18" t="n">
-        <v>0.44</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>1.107</v>
+        <v>6.633</v>
       </c>
       <c r="E19" t="n">
-        <v>3.606</v>
+        <v>16.012</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H19" t="n">
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="K19" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="L19" t="n">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="S19" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>6.633</v>
+        <v>7.018</v>
       </c>
       <c r="E20" t="n">
-        <v>16.012</v>
+        <v>17.197</v>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H20" t="n">
         <v>-13</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="K20" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L20" t="n">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M20" t="n">
         <v>7</v>
@@ -7572,263 +7572,263 @@
         <v>23</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="P20" t="n">
-        <v>0.44</v>
+        <v>0.62</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="R20" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="S20" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>7.018</v>
+        <v>1.885</v>
       </c>
       <c r="E21" t="n">
-        <v>17.197</v>
+        <v>10.439</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H21" t="n">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0.25</v>
       </c>
       <c r="K21" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="L21" t="n">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="M21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O21" t="n">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="P21" t="n">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6.743</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9.211</v>
+      </c>
+      <c r="F22" t="n">
         <v>4</v>
       </c>
-      <c r="D22" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="E22" t="n">
-        <v>10.439</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
       <c r="G22" t="n">
+        <v>13</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-9</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>52</v>
+      </c>
+      <c r="L22" t="n">
+        <v>75</v>
+      </c>
+      <c r="M22" t="n">
         <v>11</v>
       </c>
-      <c r="H22" t="n">
-        <v>-10</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K22" t="n">
-        <v>24</v>
-      </c>
-      <c r="L22" t="n">
-        <v>102</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
       <c r="N22" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="P22" t="n">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C23" t="n">
+        <v>8</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7.759</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="F23" t="n">
         <v>5</v>
       </c>
-      <c r="D23" t="n">
-        <v>6.743</v>
-      </c>
-      <c r="E23" t="n">
-        <v>9.211</v>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
-      </c>
       <c r="G23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="K23" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="L23" t="n">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="M23" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="O23" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="P23" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>7.399</v>
+        <v>0.383</v>
       </c>
       <c r="E24" t="n">
-        <v>14.185</v>
+        <v>2.481</v>
       </c>
       <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>11</v>
+      </c>
+      <c r="L24" t="n">
+        <v>13</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>5</v>
       </c>
-      <c r="G24" t="n">
-        <v>14</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-9</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K24" t="n">
-        <v>87</v>
-      </c>
-      <c r="L24" t="n">
-        <v>111</v>
-      </c>
-      <c r="M24" t="n">
-        <v>6</v>
-      </c>
-      <c r="N24" t="n">
-        <v>23</v>
-      </c>
       <c r="O24" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8316,251 +8316,251 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>10.594</v>
+        <v>10.178</v>
       </c>
       <c r="E8" t="n">
-        <v>11.136</v>
+        <v>5.632</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="L8" t="n">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="M8" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>0.38</v>
+        <v>0.6</v>
       </c>
       <c r="P8" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="R8" t="n">
-        <v>0.38</v>
+        <v>0.6</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.594</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11.136</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
-        <v>12.605</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K9" t="n">
+        <v>97</v>
+      </c>
+      <c r="L9" t="n">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>16</v>
+      </c>
+      <c r="N9" t="n">
         <v>11</v>
       </c>
-      <c r="G9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K9" t="n">
-        <v>113</v>
-      </c>
-      <c r="L9" t="n">
-        <v>90</v>
-      </c>
-      <c r="M9" t="n">
-        <v>15</v>
-      </c>
-      <c r="N9" t="n">
-        <v>14</v>
-      </c>
       <c r="O9" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="P9" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="R9" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="S9" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>12.012</v>
+        <v>12.605</v>
       </c>
       <c r="E10" t="n">
-        <v>7.923</v>
+        <v>10.09</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
         <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="K10" t="n">
+        <v>113</v>
+      </c>
+      <c r="L10" t="n">
         <v>90</v>
-      </c>
-      <c r="L10" t="n">
-        <v>91</v>
       </c>
       <c r="M10" t="n">
         <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="O10" t="n">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="P10" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.17</v>
+        <v>0.43</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.752</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.032999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>5</v>
       </c>
-      <c r="D11" t="n">
-        <v>4.568</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6.709999999999999</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>8</v>
-      </c>
       <c r="J11" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="K11" t="n">
+        <v>26</v>
+      </c>
+      <c r="L11" t="n">
         <v>46</v>
       </c>
-      <c r="L11" t="n">
-        <v>61</v>
-      </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
@@ -8570,19 +8570,19 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>6.527</v>
+        <v>4.568</v>
       </c>
       <c r="E12" t="n">
-        <v>6.101999999999999</v>
+        <v>6.709999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
         <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>8</v>
@@ -8591,19 +8591,19 @@
         <v>1.6</v>
       </c>
       <c r="K12" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L12" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="M12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="P12" t="n">
         <v>0.2</v>
@@ -8612,321 +8612,321 @@
         <v>0.2</v>
       </c>
       <c r="R12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S12" t="n">
         <v>0.6</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>2.123</v>
+        <v>6.527</v>
       </c>
       <c r="E13" t="n">
-        <v>4.256</v>
+        <v>6.101999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K13" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="L13" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N13" t="n">
         <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>7.705</v>
+        <v>2.123</v>
       </c>
       <c r="E14" t="n">
-        <v>8.359</v>
+        <v>4.256</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>29</v>
+      </c>
+      <c r="L14" t="n">
+        <v>30</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
         <v>7</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="K14" t="n">
-        <v>74</v>
-      </c>
-      <c r="L14" t="n">
-        <v>88</v>
-      </c>
-      <c r="M14" t="n">
-        <v>7</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8</v>
-      </c>
       <c r="O14" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="P14" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.705</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8.359</v>
+      </c>
+      <c r="F15" t="n">
         <v>8</v>
       </c>
-      <c r="D15" t="n">
-        <v>9.412000000000001</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7.028</v>
-      </c>
-      <c r="F15" t="n">
-        <v>13</v>
-      </c>
       <c r="G15" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="K15" t="n">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="L15" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M15" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="P15" t="n">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="R15" t="n">
         <v>0.5</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>2.313</v>
+        <v>3.678</v>
       </c>
       <c r="E16" t="n">
-        <v>2.517</v>
+        <v>6.168</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="K16" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="L16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>10.871</v>
+        <v>9.048</v>
       </c>
       <c r="E17" t="n">
-        <v>7.037000000000001</v>
+        <v>6.314</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G17" t="n">
         <v>12</v>
       </c>
       <c r="H17" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="K17" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="L17" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="M17" t="n">
         <v>14</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2</v>
+        <v>0.57</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
@@ -8936,16 +8936,16 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>4.948</v>
+        <v>10.871</v>
       </c>
       <c r="E18" t="n">
-        <v>7.803</v>
+        <v>7.037000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H18" t="n">
         <v>-3</v>
@@ -8957,25 +8957,25 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="L18" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
         <v>0.8</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0.2</v>
@@ -9177,55 +9177,55 @@
         <v>3</v>
       </c>
       <c r="C22" t="n">
+        <v>6</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.247999999999999</v>
+      </c>
+      <c r="E22" t="n">
+        <v>13.134</v>
+      </c>
+      <c r="F22" t="n">
         <v>5</v>
       </c>
-      <c r="D22" t="n">
-        <v>3.408</v>
-      </c>
-      <c r="E22" t="n">
-        <v>11.151</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
-      </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H22" t="n">
         <v>-4</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K22" t="n">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="L22" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="P22" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="S22" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
@@ -9238,46 +9238,46 @@
         <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>3.963</v>
+        <v>3.194</v>
       </c>
       <c r="E23" t="n">
-        <v>4.71</v>
+        <v>2.634</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="K23" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="L23" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="P23" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
